--- a/temperature_data_january_2025.xlsx
+++ b/temperature_data_january_2025.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Belajar Machine Learning\prediksi-suhu\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,11 +30,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +98,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -139,7 +152,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,9 +184,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,6 +219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,14 +395,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,23 +416,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
       <c r="B2">
-        <v>23.74540118847363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>23.745401188473629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45659</v>
       </c>
       <c r="B3">
-        <v>29.50714306409916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>29.507143064099161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45660</v>
       </c>
@@ -419,7 +440,7 @@
         <v>27.31993941811405</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45661</v>
       </c>
@@ -427,15 +448,15 @@
         <v>25.98658484197037</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45662</v>
       </c>
       <c r="B6">
-        <v>21.56018640442436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>21.560186404424361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45663</v>
       </c>
@@ -443,7 +464,7 @@
         <v>21.55994520336203</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45664</v>
       </c>
@@ -451,7 +472,7 @@
         <v>20.58083612168199</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45665</v>
       </c>
@@ -459,23 +480,23 @@
         <v>28.66176145774935</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45666</v>
       </c>
       <c r="B10">
-        <v>26.01115011743209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>26.011150117432091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45667</v>
       </c>
       <c r="B11">
-        <v>27.08072577796045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>27.080725777960449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45668</v>
       </c>
@@ -483,39 +504,39 @@
         <v>20.20584494295802</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45669</v>
       </c>
       <c r="B13">
-        <v>29.69909852161994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>29.699098521619941</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45670</v>
       </c>
       <c r="B14">
-        <v>28.32442640800422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>28.324426408004221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45671</v>
       </c>
       <c r="B15">
-        <v>22.12339110678276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>22.123391106782758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45672</v>
       </c>
       <c r="B16">
-        <v>21.818249672071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>21.818249672071001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45673</v>
       </c>
@@ -523,7 +544,7 @@
         <v>21.83404509853434</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45674</v>
       </c>
@@ -531,31 +552,31 @@
         <v>23.04242242959538</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45675</v>
       </c>
       <c r="B19">
-        <v>25.24756431632238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>25.247564316322379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45676</v>
       </c>
       <c r="B20">
-        <v>24.31945018642116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>24.319450186421161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45677</v>
       </c>
       <c r="B21">
-        <v>22.91229140198042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>22.912291401980418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45678</v>
       </c>
@@ -563,55 +584,55 @@
         <v>26.11852894722379</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45679</v>
       </c>
       <c r="B23">
-        <v>21.39493860652042</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>21.394938606520419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45680</v>
       </c>
       <c r="B24">
-        <v>22.92144648535218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>22.921446485352181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45681</v>
       </c>
       <c r="B25">
-        <v>23.66361843293692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>23.663618432936921</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45682</v>
       </c>
       <c r="B26">
-        <v>24.56069984217036</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>24.560699842170362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45683</v>
       </c>
       <c r="B27">
-        <v>27.85175961393013</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>27.851759613930131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45684</v>
       </c>
       <c r="B28">
-        <v>21.9967378215836</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>21.996737821583601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45685</v>
       </c>
@@ -619,7 +640,7 @@
         <v>25.14234438413612</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45686</v>
       </c>
@@ -627,7 +648,7 @@
         <v>25.92414568862042</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45687</v>
       </c>
@@ -635,7 +656,7 @@
         <v>20.46450412719998</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45688</v>
       </c>
